--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T17:03:44+00:00</t>
+    <t>2021-12-10T20:06:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:06:08+00:00</t>
+    <t>2022-01-10T15:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T15:11:55+00:00</t>
+    <t>2022-01-25T14:39:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -460,11 +460,11 @@
     <t>Vaccine brand</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCVaccineBrand}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCEventBrand}
 </t>
   </si>
   <si>
-    <t>DDCC Vaccine Brand for Immunization</t>
+    <t>DDCC Event Brand for Immunization</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -490,11 +490,11 @@
     <t>Country of vaccination</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfVaccination}
+    <t xml:space="preserve">Extension {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCCountryOfEvent}
 </t>
   </si>
   <si>
-    <t>DDCC Country Of Vaccination for Immunization</t>
+    <t>DDCC Country Of Event for Immunization</t>
   </si>
   <si>
     <t>validFrom</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-25T14:39:04+00:00</t>
+    <t>2022-01-31T16:29:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T16:29:45+00:00</t>
+    <t>2022-01-31T20:10:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-31T20:10:04+00:00</t>
+    <t>2022-02-11T00:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T00:28:19+00:00</t>
+    <t>2022-02-11T01:45:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-11T01:45:45+00:00</t>
+    <t>2022-02-13T22:11:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-13T22:11:31+00:00</t>
+    <t>2022-03-01T19:29:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T19:29:42+00:00</t>
+    <t>2022-03-04T23:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-04T23:14:40+00:00</t>
+    <t>2022-03-05T00:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T00:52:55+00:00</t>
+    <t>2022-03-05T01:03:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:03:34+00:00</t>
+    <t>2022-03-05T01:09:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-05T01:09:46+00:00</t>
+    <t>2022-03-18T16:50:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-18T16:50:55+00:00</t>
+    <t>2022-03-19T18:10:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:10:29+00:00</t>
+    <t>2022-03-19T18:27:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-19T18:27:00+00:00</t>
+    <t>2022-03-20T18:26:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T18:26:18+00:00</t>
+    <t>2022-03-20T19:00:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-20T19:00:26+00:00</t>
+    <t>2022-03-21T17:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T17:45:13+00:00</t>
+    <t>2022-03-21T18:09:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.3.1</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T18:09:33+00:00</t>
+    <t>2022-03-22T20:54:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-22T20:54:15+00:00</t>
+    <t>2022-03-23T00:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:01:05+00:00</t>
+    <t>2022-03-23T00:19:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:19:03+00:00</t>
+    <t>2022-03-23T00:33:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T00:33:43+00:00</t>
+    <t>2022-03-23T18:40:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T18:40:06+00:00</t>
+    <t>2022-03-23T19:11:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:11:09+00:00</t>
+    <t>2022-03-23T19:27:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T19:27:55+00:00</t>
+    <t>2022-03-23T20:20:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:20:45+00:00</t>
+    <t>2022-03-23T20:39:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T20:39:07+00:00</t>
+    <t>2022-03-23T21:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-23T21:03:35+00:00</t>
+    <t>2022-03-24T19:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:03:35+00:00</t>
+    <t>2022-03-24T19:25:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T19:25:05+00:00</t>
+    <t>2022-03-24T20:10:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:10:48+00:00</t>
+    <t>2022-03-24T20:26:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-24T20:26:37+00:00</t>
+    <t>2022-03-26T21:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:07:52+00:00</t>
+    <t>2022-03-26T21:44:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:44:34+00:00</t>
+    <t>2022-03-26T21:58:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T21:58:42+00:00</t>
+    <t>2022-03-26T22:00:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-26T22:00:49+00:00</t>
+    <t>2022-03-28T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T14:06:51+00:00</t>
+    <t>2022-03-28T17:18:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T17:18:58+00:00</t>
+    <t>2022-03-28T18:48:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T18:48:26+00:00</t>
+    <t>2022-03-28T20:08:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T20:08:43+00:00</t>
+    <t>2022-03-28T23:34:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:34:19+00:00</t>
+    <t>2022-03-28T23:45:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:45:02+00:00</t>
+    <t>2022-03-28T23:47:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-28T23:47:33+00:00</t>
+    <t>2022-03-29T00:49:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T00:49:23+00:00</t>
+    <t>2022-03-29T01:03:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:03:03+00:00</t>
+    <t>2022-03-29T01:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:33:50+00:00</t>
+    <t>2022-03-29T22:51:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T22:51:35+00:00</t>
+    <t>2022-03-30T04:10:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T04:10:02+00:00</t>
+    <t>2022-03-30T05:07:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:07:06+00:00</t>
+    <t>2022-03-30T05:24:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T05:24:10+00:00</t>
+    <t>2022-03-30T15:00:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T15:00:01+00:00</t>
+    <t>2022-03-30T20:32:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-30T20:32:02+00:00</t>
+    <t>2022-03-31T03:49:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T03:49:14+00:00</t>
+    <t>2022-03-31T04:31:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:31:26+00:00</t>
+    <t>2022-03-31T04:46:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T04:46:55+00:00</t>
+    <t>2022-03-31T06:22:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:22:16+00:00</t>
+    <t>2022-03-31T06:42:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-31T06:42:10+00:00</t>
+    <t>2022-04-26T17:07:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-26T17:07:52+00:00</t>
+    <t>2022-05-27T14:27:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="584">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -289,7 +289,7 @@
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -673,6 +673,10 @@
   </si>
   <si>
     <t>Immunization.vaccineCode.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
   </si>
   <si>
     <t>Unique id for inter-element referencing</t>
@@ -2162,39 +2166,39 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="49.2421875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="30.54296875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="30.546875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.54296875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="94.37890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="85.515625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="43.41015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="43.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="147.5546875" customWidth="true" bestFit="true"/>
@@ -4290,13 +4294,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4347,7 +4351,7 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>78</v>
@@ -4368,7 +4372,7 @@
         <v>77</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4379,7 +4383,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4405,10 +4409,10 @@
         <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>162</v>
@@ -4452,7 +4456,7 @@
         <v>136</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
@@ -4461,7 +4465,7 @@
         <v>137</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4482,7 +4486,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4493,7 +4497,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4516,19 +4520,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4565,7 +4569,7 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AB21" s="2"/>
       <c r="AC21" t="s" s="2">
@@ -4575,7 +4579,7 @@
         <v>137</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4593,10 +4597,10 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>77</v>
@@ -4607,10 +4611,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C22" t="s" s="2">
         <v>77</v>
@@ -4632,19 +4636,19 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="O22" t="s" s="2">
         <v>77</v>
@@ -4673,7 +4677,7 @@
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4691,7 +4695,7 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
@@ -4709,10 +4713,10 @@
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4723,7 +4727,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4746,13 +4750,13 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4803,7 +4807,7 @@
         <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>78</v>
@@ -4824,7 +4828,7 @@
         <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
@@ -4835,7 +4839,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4861,10 +4865,10 @@
         <v>133</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>162</v>
@@ -4908,7 +4912,7 @@
         <v>136</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
@@ -4917,7 +4921,7 @@
         <v>137</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
@@ -4938,7 +4942,7 @@
         <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4949,7 +4953,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4975,16 +4979,16 @@
         <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>77</v>
@@ -5033,7 +5037,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5051,10 +5055,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5065,7 +5069,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5088,16 +5092,16 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -5147,7 +5151,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5165,10 +5169,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5179,7 +5183,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5205,14 +5209,14 @@
         <v>107</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5261,7 +5265,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5279,10 +5283,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5293,7 +5297,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5316,17 +5320,17 @@
         <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>77</v>
@@ -5375,7 +5379,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5393,10 +5397,10 @@
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5407,7 +5411,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5430,13 +5434,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5487,7 +5491,7 @@
         <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
@@ -5519,7 +5523,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -5597,7 +5601,7 @@
         <v>137</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5629,10 +5633,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>77</v>
@@ -5654,13 +5658,13 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5711,7 +5715,7 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
@@ -5732,7 +5736,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5743,7 +5747,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5766,13 +5770,13 @@
         <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5796,7 +5800,7 @@
         <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>77</v>
@@ -5823,7 +5827,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5855,7 +5859,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5878,19 +5882,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5939,7 +5943,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5957,10 +5961,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5971,7 +5975,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5994,19 +5998,19 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="O34" t="s" s="2">
         <v>77</v>
@@ -6055,7 +6059,7 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>78</v>
@@ -6073,10 +6077,10 @@
         <v>77</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>77</v>
@@ -6090,7 +6094,7 @@
         <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6115,10 +6119,10 @@
         <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6149,7 +6153,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -6182,19 +6186,19 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -6202,7 +6206,7 @@
         <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -6227,10 +6231,10 @@
         <v>184</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -6261,7 +6265,7 @@
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>77</v>
@@ -6294,19 +6298,19 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37">
@@ -6314,7 +6318,7 @@
         <v>193</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C37" t="s" s="2">
         <v>77</v>
@@ -6339,10 +6343,10 @@
         <v>184</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6373,7 +6377,7 @@
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6406,24 +6410,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6446,13 +6450,13 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6503,7 +6507,7 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>88</v>
@@ -6518,16 +6522,16 @@
         <v>99</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6535,7 +6539,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -6558,13 +6562,13 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -6615,7 +6619,7 @@
         <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>78</v>
@@ -6636,7 +6640,7 @@
         <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
@@ -6647,7 +6651,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6673,10 +6677,10 @@
         <v>133</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>162</v>
@@ -6720,7 +6724,7 @@
         <v>136</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
@@ -6729,7 +6733,7 @@
         <v>137</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
@@ -6750,7 +6754,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6761,7 +6765,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6784,16 +6788,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6843,7 +6847,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6852,7 +6856,7 @@
         <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -6875,7 +6879,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6901,13 +6905,13 @@
         <v>101</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6933,13 +6937,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6957,7 +6961,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6989,7 +6993,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7015,13 +7019,13 @@
         <v>166</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7071,7 +7075,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7092,7 +7096,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7103,7 +7107,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7126,16 +7130,16 @@
         <v>80</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -7185,7 +7189,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7217,7 +7221,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -7240,13 +7244,13 @@
         <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -7297,7 +7301,7 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>78</v>
@@ -7312,16 +7316,16 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>77</v>
@@ -7329,14 +7333,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E46" t="s" s="2">
         <v>88</v>
@@ -7354,16 +7358,16 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7413,7 +7417,7 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>88</v>
@@ -7428,24 +7432,24 @@
         <v>99</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -7468,13 +7472,13 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -7525,7 +7529,7 @@
         <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>78</v>
@@ -7546,7 +7550,7 @@
         <v>77</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
@@ -7557,7 +7561,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -7583,10 +7587,10 @@
         <v>133</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M48" t="s" s="2">
         <v>162</v>
@@ -7630,7 +7634,7 @@
         <v>136</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC48" t="s" s="2">
         <v>77</v>
@@ -7639,7 +7643,7 @@
         <v>137</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7660,7 +7664,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7671,10 +7675,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C49" t="s" s="2">
         <v>77</v>
@@ -7696,13 +7700,13 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7753,7 +7757,7 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
@@ -7774,7 +7778,7 @@
         <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>77</v>
@@ -7785,7 +7789,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7808,13 +7812,13 @@
         <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7865,7 +7869,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7886,10 +7890,10 @@
         <v>77</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7897,7 +7901,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7920,16 +7924,16 @@
         <v>80</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7979,7 +7983,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -7997,13 +8001,13 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
@@ -8011,7 +8015,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -8037,13 +8041,13 @@
         <v>184</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -8072,10 +8076,10 @@
         <v>188</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8093,7 +8097,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8111,13 +8115,13 @@
         <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
@@ -8125,14 +8129,14 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E53" t="s" s="2">
         <v>88</v>
@@ -8150,13 +8154,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8207,7 +8211,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8222,16 +8226,16 @@
         <v>99</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8239,7 +8243,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -8262,13 +8266,13 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -8319,7 +8323,7 @@
         <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>78</v>
@@ -8340,7 +8344,7 @@
         <v>77</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8351,7 +8355,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -8377,10 +8381,10 @@
         <v>133</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>162</v>
@@ -8424,7 +8428,7 @@
         <v>136</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>77</v>
@@ -8433,7 +8437,7 @@
         <v>137</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
@@ -8454,7 +8458,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8465,7 +8469,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8488,16 +8492,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8547,7 +8551,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8556,7 +8560,7 @@
         <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8579,7 +8583,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8605,13 +8609,13 @@
         <v>101</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8637,13 +8641,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8661,7 +8665,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8693,7 +8697,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8719,13 +8723,13 @@
         <v>166</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8775,7 +8779,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8796,7 +8800,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8807,7 +8811,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8830,16 +8834,16 @@
         <v>80</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8889,7 +8893,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8921,7 +8925,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8944,13 +8948,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9001,7 +9005,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9019,28 +9023,28 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="E61" t="s" s="2">
         <v>78</v>
@@ -9058,13 +9062,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9115,7 +9119,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9133,21 +9137,21 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9170,13 +9174,13 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -9227,7 +9231,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9245,10 +9249,10 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9259,7 +9263,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -9285,10 +9289,10 @@
         <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>198</v>
@@ -9321,7 +9325,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9339,7 +9343,7 @@
         <v>77</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>78</v>
@@ -9371,7 +9375,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9397,10 +9401,10 @@
         <v>195</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>198</v>
@@ -9433,25 +9437,25 @@
       </c>
       <c r="X64" s="2"/>
       <c r="Y64" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE64" t="s" s="2">
         <v>425</v>
-      </c>
-      <c r="Z64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD64" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE64" t="s" s="2">
-        <v>424</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9483,7 +9487,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9506,13 +9510,13 @@
         <v>77</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9563,7 +9567,7 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
@@ -9581,10 +9585,10 @@
         <v>77</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9595,7 +9599,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9618,13 +9622,13 @@
         <v>80</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9675,7 +9679,7 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
@@ -9690,13 +9694,13 @@
         <v>99</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9707,7 +9711,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9730,13 +9734,13 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -9787,7 +9791,7 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>78</v>
@@ -9808,7 +9812,7 @@
         <v>77</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9819,7 +9823,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -9845,10 +9849,10 @@
         <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>162</v>
@@ -9901,7 +9905,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9922,7 +9926,7 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9933,11 +9937,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9959,10 +9963,10 @@
         <v>133</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>162</v>
@@ -10017,7 +10021,7 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
@@ -10049,7 +10053,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10075,10 +10079,10 @@
         <v>184</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -10105,13 +10109,13 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Z70" t="s" s="2">
         <v>77</v>
@@ -10129,7 +10133,7 @@
         <v>77</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>78</v>
@@ -10144,13 +10148,13 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>77</v>
@@ -10161,14 +10165,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E71" t="s" s="2">
         <v>88</v>
@@ -10186,16 +10190,16 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -10245,7 +10249,7 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>88</v>
@@ -10260,16 +10264,16 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10277,7 +10281,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10300,13 +10304,13 @@
         <v>80</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10357,7 +10361,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10372,13 +10376,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10389,7 +10393,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10415,10 +10419,10 @@
         <v>184</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10448,10 +10452,10 @@
         <v>188</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>77</v>
@@ -10469,7 +10473,7 @@
         <v>77</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10484,13 +10488,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10501,7 +10505,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10524,13 +10528,13 @@
         <v>77</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -10581,7 +10585,7 @@
         <v>77</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>78</v>
@@ -10596,7 +10600,7 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>77</v>
@@ -10613,7 +10617,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10636,23 +10640,23 @@
         <v>80</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="P75" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="Q75" t="s" s="2">
         <v>77</v>
@@ -10697,7 +10701,7 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
@@ -10715,7 +10719,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>130</v>
@@ -10729,7 +10733,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10755,10 +10759,10 @@
         <v>184</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10788,10 +10792,10 @@
         <v>188</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -10809,7 +10813,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10841,7 +10845,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -10864,13 +10868,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10921,7 +10925,7 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
@@ -10933,7 +10937,7 @@
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
@@ -10953,7 +10957,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10976,13 +10980,13 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -11033,7 +11037,7 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>78</v>
@@ -11054,7 +11058,7 @@
         <v>77</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11065,7 +11069,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11091,10 +11095,10 @@
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>162</v>
@@ -11147,7 +11151,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11168,7 +11172,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11179,11 +11183,11 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -11205,10 +11209,10 @@
         <v>133</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M80" t="s" s="2">
         <v>162</v>
@@ -11263,7 +11267,7 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
@@ -11295,7 +11299,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11318,13 +11322,13 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11375,7 +11379,7 @@
         <v>77</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>78</v>
@@ -11393,7 +11397,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>130</v>
@@ -11407,7 +11411,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11433,10 +11437,10 @@
         <v>101</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11487,7 +11491,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11519,7 +11523,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11542,13 +11546,13 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -11599,7 +11603,7 @@
         <v>77</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>78</v>
@@ -11617,7 +11621,7 @@
         <v>77</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>130</v>
@@ -11631,7 +11635,7 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -11654,13 +11658,13 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -11711,7 +11715,7 @@
         <v>77</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>78</v>
@@ -11729,7 +11733,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>130</v>
@@ -11743,7 +11747,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11769,10 +11773,10 @@
         <v>184</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11802,10 +11806,10 @@
         <v>188</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11823,7 +11827,7 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
@@ -11841,7 +11845,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>130</v>
@@ -11855,7 +11859,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11881,10 +11885,10 @@
         <v>184</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="M86" s="2"/>
       <c r="N86" s="2"/>
@@ -11914,10 +11918,10 @@
         <v>188</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11935,7 +11939,7 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
@@ -11967,7 +11971,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11990,16 +11994,16 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
@@ -12049,7 +12053,7 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
@@ -12067,10 +12071,10 @@
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12081,7 +12085,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12104,13 +12108,13 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -12161,7 +12165,7 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>78</v>
@@ -12182,7 +12186,7 @@
         <v>77</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12193,7 +12197,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12219,10 +12223,10 @@
         <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>162</v>
@@ -12275,7 +12279,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12296,7 +12300,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12307,11 +12311,11 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -12333,10 +12337,10 @@
         <v>133</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M90" t="s" s="2">
         <v>162</v>
@@ -12391,7 +12395,7 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
@@ -12423,7 +12427,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12446,13 +12450,13 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12503,7 +12507,7 @@
         <v>77</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>78</v>
@@ -12521,10 +12525,10 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12535,7 +12539,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12558,13 +12562,13 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12615,7 +12619,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12633,10 +12637,10 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12647,7 +12651,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12670,13 +12674,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12727,7 +12731,7 @@
         <v>77</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
@@ -12745,10 +12749,10 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12759,7 +12763,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -12782,13 +12786,13 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12827,7 +12831,7 @@
         <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB94" s="2"/>
       <c r="AC94" t="s" s="2">
@@ -12837,7 +12841,7 @@
         <v>137</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
@@ -12869,7 +12873,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -12892,13 +12896,13 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -12949,7 +12953,7 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>78</v>
@@ -12970,7 +12974,7 @@
         <v>77</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12981,7 +12985,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13007,10 +13011,10 @@
         <v>133</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>162</v>
@@ -13063,7 +13067,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13084,7 +13088,7 @@
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13095,11 +13099,11 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -13121,10 +13125,10 @@
         <v>133</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M97" t="s" s="2">
         <v>162</v>
@@ -13179,7 +13183,7 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
@@ -13211,7 +13215,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13234,13 +13238,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13291,7 +13295,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13323,7 +13327,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13346,13 +13350,13 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13403,7 +13407,7 @@
         <v>77</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
@@ -13435,7 +13439,7 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13461,10 +13465,10 @@
         <v>184</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13495,7 +13499,7 @@
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>77</v>
@@ -13513,7 +13517,7 @@
         <v>137</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13545,10 +13549,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>77</v>
@@ -13573,10 +13577,10 @@
         <v>184</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -13607,7 +13611,7 @@
       </c>
       <c r="X101" s="2"/>
       <c r="Y101" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>77</v>
@@ -13625,7 +13629,7 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>78</v>
@@ -13657,7 +13661,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13680,16 +13684,16 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13739,7 +13743,7 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>88</v>
@@ -13771,7 +13775,7 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -13794,16 +13798,16 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
@@ -13853,7 +13857,7 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
@@ -13885,10 +13889,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>77</v>
@@ -13910,13 +13914,13 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13967,7 +13971,7 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
@@ -13999,7 +14003,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14022,13 +14026,13 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M105" s="2"/>
       <c r="N105" s="2"/>
@@ -14079,7 +14083,7 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>78</v>
@@ -14100,7 +14104,7 @@
         <v>77</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -14111,7 +14115,7 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14137,10 +14141,10 @@
         <v>133</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>162</v>
@@ -14193,7 +14197,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14214,7 +14218,7 @@
         <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>77</v>
@@ -14225,11 +14229,11 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -14251,10 +14255,10 @@
         <v>133</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="M107" t="s" s="2">
         <v>162</v>
@@ -14309,7 +14313,7 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
@@ -14341,7 +14345,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14364,13 +14368,13 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>89</v>
+        <v>206</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14421,7 +14425,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -14453,7 +14457,7 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14476,13 +14480,13 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14533,7 +14537,7 @@
         <v>77</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
@@ -14565,14 +14569,14 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="E110" t="s" s="2">
         <v>78</v>
@@ -14593,10 +14597,10 @@
         <v>184</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14627,7 +14631,7 @@
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>77</v>
@@ -14645,7 +14649,7 @@
         <v>137</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -14677,10 +14681,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C111" t="s" s="2">
         <v>77</v>
@@ -14705,10 +14709,10 @@
         <v>184</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
@@ -14739,7 +14743,7 @@
       </c>
       <c r="X111" s="2"/>
       <c r="Y111" t="s" s="2">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>77</v>
@@ -14757,7 +14761,7 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AF111" t="s" s="2">
         <v>78</v>
@@ -14789,14 +14793,14 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E112" t="s" s="2">
         <v>88</v>
@@ -14814,16 +14818,16 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14873,7 +14877,7 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>88</v>
@@ -14905,41 +14909,41 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D113" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="E113" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F113" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="I113" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="J113" t="s" s="2">
         <v>582</v>
       </c>
-      <c r="E113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>581</v>
-      </c>
       <c r="K113" t="s" s="2">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -14989,7 +14993,7 @@
         <v>77</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>78</v>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$112</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4072" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4035" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -653,10 +653,7 @@
     <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
-    <t>The type of vaccine for particular disease or diseases against which the patient has been immunised.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/uv/ips/ValueSet/vaccines-uv-ips</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -725,10 +722,6 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>exists:system}
-exists:code}</t>
-  </si>
-  <si>
     <t>CodeableConcept.coding</t>
   </si>
   <si>
@@ -736,12 +729,6 @@
   </si>
   <si>
     <t>CV</t>
-  </si>
-  <si>
-    <t>ddccVaccine</t>
-  </si>
-  <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ValueSet/who-ddcc-vaccines-covid-19</t>
   </si>
   <si>
     <t>Immunization.vaccineCode.coding.id</t>
@@ -2156,7 +2143,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN113"/>
+  <dimension ref="A1:AN112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2188,7 +2175,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="94.37890625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="66.7265625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="85.51953125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
@@ -4217,20 +4204,18 @@
       <c r="W18" t="s" s="2">
         <v>111</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="X18" s="2"/>
+      <c r="Y18" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="Y18" t="s" s="2">
+      <c r="Z18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA18" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="Z18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA18" t="s" s="2">
+      <c r="AB18" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>202</v>
       </c>
       <c r="AC18" t="s" s="2">
         <v>77</v>
@@ -4257,10 +4242,10 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>77</v>
@@ -4271,7 +4256,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -4294,13 +4279,13 @@
         <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -4351,28 +4336,28 @@
         <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL19" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM19" t="s" s="2">
         <v>77</v>
@@ -4383,7 +4368,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -4409,10 +4394,10 @@
         <v>133</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="M20" t="s" s="2">
         <v>162</v>
@@ -4456,7 +4441,7 @@
         <v>136</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>77</v>
@@ -4465,7 +4450,7 @@
         <v>137</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>78</v>
@@ -4486,7 +4471,7 @@
         <v>77</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>77</v>
@@ -4495,9 +4480,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4508,7 +4493,7 @@
         <v>88</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>80</v>
@@ -4520,19 +4505,19 @@
         <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="O21" t="s" s="2">
         <v>77</v>
@@ -4569,17 +4554,19 @@
         <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="AB21" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC21" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>78</v>
@@ -4597,37 +4584,35 @@
         <v>77</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" hidden="true">
+      <c r="A22" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>225</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>226</v>
-      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>77</v>
@@ -4636,20 +4621,16 @@
         <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>77</v>
       </c>
@@ -4673,11 +4654,13 @@
         <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="X22" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y22" t="s" s="2">
-        <v>227</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>77</v>
@@ -4695,28 +4678,28 @@
         <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ22" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>77</v>
@@ -4727,18 +4710,18 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>77</v>
@@ -4750,15 +4733,17 @@
         <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>77</v>
@@ -4795,41 +4780,41 @@
         <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL23" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF23" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM23" t="s" s="2">
         <v>77</v>
       </c>
@@ -4837,43 +4822,45 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>133</v>
+        <v>101</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>77</v>
       </c>
@@ -4909,40 +4896,40 @@
         <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>232</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>77</v>
@@ -4953,7 +4940,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4961,7 +4948,7 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
         <v>88</v>
@@ -4976,20 +4963,18 @@
         <v>80</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>101</v>
+        <v>205</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>77</v>
       </c>
@@ -5037,7 +5022,7 @@
         <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>78</v>
@@ -5055,10 +5040,10 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>77</v>
@@ -5069,7 +5054,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -5077,7 +5062,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>88</v>
@@ -5092,18 +5077,18 @@
         <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>206</v>
+        <v>107</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>243</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>244</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>77</v>
       </c>
@@ -5151,7 +5136,7 @@
         <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>78</v>
@@ -5169,10 +5154,10 @@
         <v>77</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>77</v>
@@ -5183,7 +5168,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -5191,7 +5176,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>88</v>
@@ -5206,17 +5191,17 @@
         <v>80</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>107</v>
+        <v>205</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s" s="2">
         <v>77</v>
@@ -5265,7 +5250,7 @@
         <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>78</v>
@@ -5283,10 +5268,10 @@
         <v>77</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>77</v>
@@ -5295,9 +5280,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -5311,27 +5296,25 @@
         <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M28" s="2"/>
-      <c r="N28" t="s" s="2">
-        <v>255</v>
-      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>77</v>
       </c>
@@ -5379,7 +5362,7 @@
         <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>78</v>
@@ -5391,16 +5374,16 @@
         <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>257</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>258</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>77</v>
@@ -5411,7 +5394,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5422,10 +5405,10 @@
         <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>77</v>
@@ -5434,13 +5417,13 @@
         <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>260</v>
+        <v>134</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>261</v>
+        <v>135</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -5479,31 +5462,29 @@
         <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>77</v>
@@ -5521,11 +5502,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>259</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>77</v>
       </c>
@@ -5546,13 +5529,13 @@
         <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>133</v>
+        <v>260</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -5591,17 +5574,19 @@
         <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>78</v>
@@ -5610,7 +5595,7 @@
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>139</v>
@@ -5622,7 +5607,7 @@
         <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>77</v>
+        <v>263</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>77</v>
@@ -5631,13 +5616,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>263</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>77</v>
       </c>
@@ -5646,10 +5629,10 @@
         <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>77</v>
@@ -5658,7 +5641,7 @@
         <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="K31" t="s" s="2">
         <v>265</v>
@@ -5688,7 +5671,7 @@
         <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>267</v>
       </c>
       <c r="W31" t="s" s="2">
         <v>77</v>
@@ -5715,19 +5698,19 @@
         <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>268</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>77</v>
@@ -5736,7 +5719,7 @@
         <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>77</v>
@@ -5747,7 +5730,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5767,19 +5750,23 @@
         <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>206</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>272</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>77</v>
       </c>
@@ -5800,7 +5787,7 @@
         <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>271</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
         <v>77</v>
@@ -5827,7 +5814,7 @@
         <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>78</v>
@@ -5839,16 +5826,16 @@
         <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>277</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>77</v>
@@ -5857,9 +5844,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5873,7 +5860,7 @@
         <v>88</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>77</v>
@@ -5882,19 +5869,19 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>274</v>
+        <v>205</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>77</v>
@@ -5943,7 +5930,7 @@
         <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>78</v>
@@ -5961,10 +5948,10 @@
         <v>77</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>77</v>
@@ -5975,9 +5962,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>193</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="C34" t="s" s="2">
         <v>77</v>
       </c>
@@ -5998,20 +5987,16 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>77</v>
       </c>
@@ -6035,13 +6020,11 @@
         <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="X34" s="2"/>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>289</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>77</v>
@@ -6059,10 +6042,10 @@
         <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>88</v>
@@ -6074,19 +6057,19 @@
         <v>99</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>77</v>
+        <v>293</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>77</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35">
@@ -6094,7 +6077,7 @@
         <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="C35" t="s" s="2">
         <v>77</v>
@@ -6119,10 +6102,10 @@
         <v>184</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -6153,7 +6136,7 @@
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>77</v>
@@ -6186,19 +6169,19 @@
         <v>99</v>
       </c>
       <c r="AJ35" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM35" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="36">
@@ -6206,7 +6189,7 @@
         <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C36" t="s" s="2">
         <v>77</v>
@@ -6231,7 +6214,7 @@
         <v>184</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L36" t="s" s="2">
         <v>300</v>
@@ -6298,34 +6281,32 @@
         <v>99</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AN36" t="s" s="2">
         <v>294</v>
-      </c>
-      <c r="AK36" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AL36" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="AM36" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>298</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="B37" t="s" s="2">
         <v>302</v>
       </c>
+      <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>88</v>
@@ -6340,13 +6321,13 @@
         <v>80</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6373,11 +6354,13 @@
         <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X37" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y37" t="s" s="2">
-        <v>305</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>77</v>
@@ -6395,7 +6378,7 @@
         <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>193</v>
+        <v>302</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>88</v>
@@ -6410,24 +6393,24 @@
         <v>99</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>298</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -6435,28 +6418,28 @@
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>307</v>
+        <v>205</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>309</v>
+        <v>207</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -6507,10 +6490,10 @@
         <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>306</v>
+        <v>208</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>88</v>
@@ -6519,19 +6502,19 @@
         <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>310</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>313</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>77</v>
@@ -6539,18 +6522,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>77</v>
@@ -6562,15 +6545,17 @@
         <v>77</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>77</v>
@@ -6607,41 +6592,41 @@
         <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AC39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE39" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF39" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG39" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM39" t="s" s="2">
         <v>77</v>
       </c>
@@ -6649,41 +6634,41 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
@@ -6721,31 +6706,31 @@
         <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>77</v>
@@ -6754,7 +6739,7 @@
         <v>77</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>77</v>
@@ -6763,9 +6748,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -6773,13 +6758,13 @@
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>77</v>
@@ -6788,16 +6773,16 @@
         <v>80</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6823,13 +6808,13 @@
         <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>77</v>
@@ -6847,7 +6832,7 @@
         <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>78</v>
@@ -6856,7 +6841,7 @@
         <v>88</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>99</v>
@@ -6879,7 +6864,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6902,16 +6887,16 @@
         <v>80</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6937,13 +6922,13 @@
         <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>77</v>
@@ -6961,7 +6946,7 @@
         <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>78</v>
@@ -6982,7 +6967,7 @@
         <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>77</v>
@@ -6993,7 +6978,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -7016,16 +7001,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -7075,7 +7060,7 @@
         <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>78</v>
@@ -7096,7 +7081,7 @@
         <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>77</v>
@@ -7107,7 +7092,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -7127,20 +7112,18 @@
         <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>206</v>
+        <v>338</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>340</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>77</v>
@@ -7189,7 +7172,7 @@
         <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>78</v>
@@ -7204,55 +7187,59 @@
         <v>99</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>341</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>342</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>130</v>
+        <v>343</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>344</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>346</v>
+      </c>
       <c r="E45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>349</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>350</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>77</v>
@@ -7301,10 +7288,10 @@
         <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -7316,59 +7303,55 @@
         <v>99</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>77</v>
+        <v>355</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D46" t="s" s="2">
-        <v>350</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>351</v>
+        <v>205</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>352</v>
+        <v>206</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>77</v>
@@ -7417,10 +7400,10 @@
         <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>349</v>
+        <v>208</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -7429,38 +7412,38 @@
         <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>356</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>357</v>
+        <v>209</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>358</v>
+        <v>77</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>359</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>77</v>
@@ -7472,15 +7455,17 @@
         <v>77</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M47" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>77</v>
@@ -7517,41 +7502,41 @@
         <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE47" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AF47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="AM47" t="s" s="2">
         <v>77</v>
       </c>
@@ -7559,23 +7544,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>358</v>
+      </c>
       <c r="C48" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>77</v>
@@ -7584,17 +7571,15 @@
         <v>77</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>133</v>
+        <v>359</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>212</v>
+        <v>360</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>77</v>
@@ -7631,19 +7616,19 @@
         <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE48" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>78</v>
@@ -7664,7 +7649,7 @@
         <v>77</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>210</v>
+        <v>362</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>77</v>
@@ -7673,13 +7658,11 @@
         <v>77</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>362</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>77</v>
       </c>
@@ -7691,7 +7674,7 @@
         <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>77</v>
@@ -7700,7 +7683,7 @@
         <v>77</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="K49" t="s" s="2">
         <v>364</v>
@@ -7757,19 +7740,19 @@
         <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>215</v>
+        <v>363</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>77</v>
@@ -7781,7 +7764,7 @@
         <v>366</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>77</v>
@@ -7789,7 +7772,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7809,18 +7792,20 @@
         <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>351</v>
+        <v>270</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M50" s="2"/>
+        <v>370</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>371</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>77</v>
@@ -7869,7 +7854,7 @@
         <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>78</v>
@@ -7887,13 +7872,13 @@
         <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>77</v>
+        <v>372</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>77</v>
@@ -7901,7 +7886,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7921,19 +7906,19 @@
         <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -7959,13 +7944,13 @@
         <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>379</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>380</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>77</v>
@@ -7983,7 +7968,7 @@
         <v>77</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>78</v>
@@ -8001,35 +7986,37 @@
         <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>383</v>
+      </c>
       <c r="E52" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>77</v>
@@ -8038,17 +8025,15 @@
         <v>77</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>184</v>
+        <v>384</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="M52" s="2"/>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>77</v>
@@ -8073,13 +8058,13 @@
         <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>383</v>
+        <v>77</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>384</v>
+        <v>77</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>77</v>
@@ -8097,7 +8082,7 @@
         <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>78</v>
@@ -8112,40 +8097,38 @@
         <v>99</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>387</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D53" t="s" s="2">
-        <v>387</v>
-      </c>
+      <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>77</v>
@@ -8154,13 +8137,13 @@
         <v>77</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>388</v>
+        <v>205</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>389</v>
+        <v>206</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>390</v>
+        <v>207</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -8211,7 +8194,7 @@
         <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>386</v>
+        <v>208</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>78</v>
@@ -8223,19 +8206,19 @@
         <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>391</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>392</v>
+        <v>77</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>393</v>
+        <v>209</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>394</v>
+        <v>77</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>77</v>
@@ -8243,18 +8226,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>77</v>
@@ -8266,15 +8249,17 @@
         <v>77</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>77</v>
@@ -8311,40 +8296,40 @@
         <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>77</v>
+        <v>136</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>77</v>
+        <v>213</v>
       </c>
       <c r="AC54" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>77</v>
@@ -8355,18 +8340,18 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>159</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>77</v>
@@ -8375,19 +8360,19 @@
         <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>212</v>
+        <v>313</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>213</v>
+        <v>314</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>162</v>
+        <v>315</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -8425,31 +8410,31 @@
         <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>214</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>215</v>
+        <v>316</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>77</v>
+        <v>317</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>77</v>
@@ -8458,7 +8443,7 @@
         <v>77</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>77</v>
@@ -8469,7 +8454,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -8492,16 +8477,16 @@
         <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -8527,13 +8512,13 @@
         <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>77</v>
+        <v>323</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>77</v>
@@ -8551,7 +8536,7 @@
         <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>78</v>
@@ -8560,7 +8545,7 @@
         <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>321</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>99</v>
@@ -8583,7 +8568,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -8606,16 +8591,16 @@
         <v>80</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>101</v>
+        <v>166</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
@@ -8641,13 +8626,13 @@
         <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>327</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>328</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
         <v>77</v>
@@ -8665,7 +8650,7 @@
         <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>78</v>
@@ -8686,7 +8671,7 @@
         <v>77</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>130</v>
+        <v>331</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>77</v>
@@ -8695,9 +8680,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8705,13 +8690,13 @@
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F58" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>77</v>
@@ -8720,16 +8705,16 @@
         <v>80</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8779,7 +8764,7 @@
         <v>77</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>78</v>
@@ -8800,7 +8785,7 @@
         <v>77</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>335</v>
+        <v>130</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>77</v>
@@ -8811,7 +8796,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8819,7 +8804,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>88</v>
@@ -8831,20 +8816,18 @@
         <v>77</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>206</v>
+        <v>398</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>337</v>
+        <v>399</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>339</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>77</v>
@@ -8893,7 +8876,7 @@
         <v>77</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>340</v>
+        <v>397</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>78</v>
@@ -8911,27 +8894,29 @@
         <v>77</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>77</v>
+        <v>401</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>130</v>
+        <v>402</v>
       </c>
       <c r="AM59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>77</v>
+        <v>403</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>405</v>
+      </c>
       <c r="E60" t="s" s="2">
         <v>78</v>
       </c>
@@ -8948,13 +8933,13 @@
         <v>77</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>402</v>
+        <v>205</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -9005,7 +8990,7 @@
         <v>77</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>78</v>
@@ -9023,29 +9008,27 @@
         <v>77</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D61" t="s" s="2">
-        <v>409</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>78</v>
       </c>
@@ -9053,7 +9036,7 @@
         <v>88</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>77</v>
@@ -9062,13 +9045,13 @@
         <v>77</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>206</v>
+        <v>412</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -9119,7 +9102,7 @@
         <v>77</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>78</v>
@@ -9137,21 +9120,21 @@
         <v>77</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>414</v>
+        <v>77</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9165,7 +9148,7 @@
         <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>77</v>
@@ -9174,15 +9157,17 @@
         <v>77</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>416</v>
+        <v>195</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>77</v>
@@ -9207,13 +9192,11 @@
         <v>77</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>77</v>
+        <v>420</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>77</v>
@@ -9231,7 +9214,7 @@
         <v>77</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>78</v>
@@ -9240,7 +9223,7 @@
         <v>88</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>99</v>
@@ -9249,10 +9232,10 @@
         <v>77</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>419</v>
+        <v>202</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>77</v>
@@ -9289,10 +9272,10 @@
         <v>195</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>198</v>
@@ -9325,7 +9308,7 @@
       </c>
       <c r="X63" s="2"/>
       <c r="Y63" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>77</v>
@@ -9361,11 +9344,11 @@
         <v>77</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="AL63" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>204</v>
-      </c>
       <c r="AM63" t="s" s="2">
         <v>77</v>
       </c>
@@ -9373,9 +9356,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9389,7 +9372,7 @@
         <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>77</v>
@@ -9398,17 +9381,15 @@
         <v>77</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>195</v>
+        <v>424</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>198</v>
-      </c>
+        <v>426</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>77</v>
@@ -9433,11 +9414,13 @@
         <v>77</v>
       </c>
       <c r="W64" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="X64" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y64" t="s" s="2">
-        <v>426</v>
+        <v>77</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>77</v>
@@ -9455,7 +9438,7 @@
         <v>77</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>78</v>
@@ -9464,7 +9447,7 @@
         <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="AI64" t="s" s="2">
         <v>99</v>
@@ -9473,10 +9456,10 @@
         <v>77</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>204</v>
+        <v>428</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>77</v>
@@ -9485,9 +9468,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9498,25 +9481,25 @@
         <v>78</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -9567,13 +9550,13 @@
         <v>77</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>77</v>
@@ -9582,13 +9565,13 @@
         <v>99</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>77</v>
+        <v>433</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>77</v>
@@ -9597,9 +9580,9 @@
         <v>77</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9610,25 +9593,25 @@
         <v>78</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>435</v>
+        <v>206</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>436</v>
+        <v>207</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -9679,28 +9662,28 @@
         <v>77</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>433</v>
+        <v>208</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI66" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>437</v>
+        <v>77</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>438</v>
+        <v>77</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>439</v>
+        <v>209</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>77</v>
@@ -9711,18 +9694,18 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>77</v>
@@ -9734,15 +9717,17 @@
         <v>77</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>77</v>
@@ -9791,28 +9776,28 @@
         <v>77</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL67" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>77</v>
@@ -9823,11 +9808,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9840,24 +9825,26 @@
         <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J68" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="M68" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>77</v>
       </c>
@@ -9905,7 +9892,7 @@
         <v>77</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>78</v>
@@ -9926,7 +9913,7 @@
         <v>77</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>77</v>
@@ -9937,30 +9924,30 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>444</v>
@@ -9968,12 +9955,8 @@
       <c r="L69" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>163</v>
-      </c>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
       <c r="O69" t="s" s="2">
         <v>77</v>
       </c>
@@ -9997,13 +9980,13 @@
         <v>77</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>77</v>
+        <v>322</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>77</v>
+        <v>446</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>77</v>
+        <v>447</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>77</v>
@@ -10021,28 +10004,28 @@
         <v>77</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>77</v>
+        <v>448</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>130</v>
+        <v>449</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>77</v>
@@ -10051,23 +10034,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>451</v>
+      </c>
       <c r="E70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F70" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>77</v>
@@ -10076,15 +10061,17 @@
         <v>80</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>184</v>
+        <v>452</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>454</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>455</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>77</v>
@@ -10109,34 +10096,34 @@
         <v>77</v>
       </c>
       <c r="W70" t="s" s="2">
-        <v>326</v>
+        <v>77</v>
       </c>
       <c r="X70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE70" t="s" s="2">
         <v>450</v>
       </c>
-      <c r="Y70" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD70" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE70" t="s" s="2">
-        <v>447</v>
-      </c>
       <c r="AF70" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -10148,40 +10135,38 @@
         <v>99</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>77</v>
+        <v>458</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>77</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D71" t="s" s="2">
-        <v>455</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>77</v>
@@ -10190,17 +10175,15 @@
         <v>80</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>459</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>77</v>
@@ -10249,13 +10232,13 @@
         <v>77</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>77</v>
@@ -10264,16 +10247,16 @@
         <v>99</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>77</v>
+        <v>464</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>462</v>
+        <v>77</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>77</v>
@@ -10281,7 +10264,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10301,16 +10284,16 @@
         <v>77</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>464</v>
+        <v>184</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -10337,13 +10320,13 @@
         <v>77</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>77</v>
+        <v>469</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>77</v>
+        <v>470</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>77</v>
@@ -10361,7 +10344,7 @@
         <v>77</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>78</v>
@@ -10376,13 +10359,13 @@
         <v>99</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>468</v>
+        <v>77</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>77</v>
@@ -10393,7 +10376,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10416,13 +10399,13 @@
         <v>77</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>184</v>
+        <v>474</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10449,31 +10432,31 @@
         <v>77</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="X73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE73" t="s" s="2">
         <v>473</v>
-      </c>
-      <c r="Y73" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="Z73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD73" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE73" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>78</v>
@@ -10488,13 +10471,13 @@
         <v>99</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>476</v>
+        <v>130</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>77</v>
@@ -10516,32 +10499,36 @@
         <v>78</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="K74" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="L74" t="s" s="2">
         <v>479</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" t="s" s="2">
+        <v>480</v>
+      </c>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="Q74" t="s" s="2">
         <v>77</v>
       </c>
@@ -10591,7 +10578,7 @@
         <v>78</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>77</v>
@@ -10600,10 +10587,10 @@
         <v>99</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>480</v>
+        <v>77</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>77</v>
+        <v>482</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>130</v>
@@ -10617,7 +10604,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10628,36 +10615,32 @@
         <v>78</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H75" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>274</v>
+        <v>184</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>484</v>
-      </c>
+        <v>485</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="P75" t="s" s="2">
-        <v>485</v>
-      </c>
+      <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
         <v>77</v>
       </c>
@@ -10677,13 +10660,13 @@
         <v>77</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>77</v>
+        <v>486</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>77</v>
+        <v>487</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>77</v>
@@ -10701,13 +10684,13 @@
         <v>77</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>77</v>
@@ -10719,7 +10702,7 @@
         <v>77</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>486</v>
+        <v>77</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>130</v>
@@ -10733,7 +10716,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -10756,13 +10739,13 @@
         <v>77</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>184</v>
+        <v>430</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -10789,13 +10772,13 @@
         <v>77</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>490</v>
+        <v>77</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>77</v>
@@ -10813,7 +10796,7 @@
         <v>77</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>78</v>
@@ -10825,7 +10808,7 @@
         <v>77</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>99</v>
+        <v>491</v>
       </c>
       <c r="AJ76" t="s" s="2">
         <v>77</v>
@@ -10856,7 +10839,7 @@
         <v>78</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>77</v>
@@ -10868,13 +10851,13 @@
         <v>77</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>493</v>
+        <v>206</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>494</v>
+        <v>207</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -10925,19 +10908,19 @@
         <v>77</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>492</v>
+        <v>208</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>495</v>
+        <v>77</v>
       </c>
       <c r="AJ77" t="s" s="2">
         <v>77</v>
@@ -10946,7 +10929,7 @@
         <v>77</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>77</v>
@@ -10957,18 +10940,18 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>77</v>
@@ -10980,15 +10963,17 @@
         <v>77</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M78" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>77</v>
@@ -11037,28 +11022,28 @@
         <v>77</v>
       </c>
       <c r="AE78" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL78" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>77</v>
@@ -11069,11 +11054,11 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -11086,24 +11071,26 @@
         <v>77</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J79" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N79" s="2"/>
+      <c r="N79" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>77</v>
       </c>
@@ -11151,7 +11138,7 @@
         <v>77</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>78</v>
@@ -11172,7 +11159,7 @@
         <v>77</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>77</v>
@@ -11183,43 +11170,39 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H80" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>497</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>77</v>
       </c>
@@ -11267,25 +11250,25 @@
         <v>77</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>77</v>
+        <v>498</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>130</v>
@@ -11322,7 +11305,7 @@
         <v>77</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>206</v>
+        <v>101</v>
       </c>
       <c r="K81" t="s" s="2">
         <v>500</v>
@@ -11397,7 +11380,7 @@
         <v>77</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>502</v>
+        <v>77</v>
       </c>
       <c r="AL81" t="s" s="2">
         <v>130</v>
@@ -11411,7 +11394,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11434,13 +11417,13 @@
         <v>77</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>101</v>
+        <v>347</v>
       </c>
       <c r="K82" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="L82" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -11491,7 +11474,7 @@
         <v>77</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>78</v>
@@ -11509,7 +11492,7 @@
         <v>77</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>77</v>
+        <v>505</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>130</v>
@@ -11546,7 +11529,7 @@
         <v>77</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="K83" t="s" s="2">
         <v>507</v>
@@ -11646,7 +11629,7 @@
         <v>78</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>77</v>
@@ -11658,7 +11641,7 @@
         <v>77</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>351</v>
+        <v>184</v>
       </c>
       <c r="K84" t="s" s="2">
         <v>511</v>
@@ -11691,13 +11674,13 @@
         <v>77</v>
       </c>
       <c r="W84" t="s" s="2">
-        <v>77</v>
+        <v>188</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>77</v>
+        <v>513</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="Z84" t="s" s="2">
         <v>77</v>
@@ -11721,7 +11704,7 @@
         <v>78</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>77</v>
@@ -11733,7 +11716,7 @@
         <v>77</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="AL84" t="s" s="2">
         <v>130</v>
@@ -11747,7 +11730,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -11758,7 +11741,7 @@
         <v>78</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>77</v>
@@ -11773,10 +11756,10 @@
         <v>184</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M85" s="2"/>
       <c r="N85" s="2"/>
@@ -11806,10 +11789,10 @@
         <v>188</v>
       </c>
       <c r="X85" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="Y85" t="s" s="2">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="Z85" t="s" s="2">
         <v>77</v>
@@ -11827,13 +11810,13 @@
         <v>77</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>77</v>
@@ -11845,7 +11828,7 @@
         <v>77</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="AL85" t="s" s="2">
         <v>130</v>
@@ -11859,7 +11842,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -11870,7 +11853,7 @@
         <v>78</v>
       </c>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>77</v>
@@ -11882,15 +11865,17 @@
         <v>77</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>184</v>
+        <v>430</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="M86" s="2"/>
+        <v>523</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>524</v>
+      </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>77</v>
@@ -11915,13 +11900,13 @@
         <v>77</v>
       </c>
       <c r="W86" t="s" s="2">
-        <v>188</v>
+        <v>77</v>
       </c>
       <c r="X86" t="s" s="2">
-        <v>523</v>
+        <v>77</v>
       </c>
       <c r="Y86" t="s" s="2">
-        <v>524</v>
+        <v>77</v>
       </c>
       <c r="Z86" t="s" s="2">
         <v>77</v>
@@ -11939,13 +11924,13 @@
         <v>77</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>77</v>
@@ -11957,10 +11942,10 @@
         <v>77</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>77</v>
+        <v>525</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>130</v>
+        <v>526</v>
       </c>
       <c r="AM86" t="s" s="2">
         <v>77</v>
@@ -11971,7 +11956,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -11982,7 +11967,7 @@
         <v>78</v>
       </c>
       <c r="F87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>77</v>
@@ -11994,17 +11979,15 @@
         <v>77</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>526</v>
+        <v>206</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>527</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>528</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="M87" s="2"/>
       <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>77</v>
@@ -12053,28 +12036,28 @@
         <v>77</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>525</v>
+        <v>208</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI87" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>529</v>
+        <v>77</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>530</v>
+        <v>209</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>77</v>
@@ -12085,18 +12068,18 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>77</v>
@@ -12108,15 +12091,17 @@
         <v>77</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M88" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
         <v>77</v>
@@ -12165,28 +12150,28 @@
         <v>77</v>
       </c>
       <c r="AE88" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL88" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF88" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG88" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK88" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL88" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>77</v>
@@ -12197,11 +12182,11 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -12214,24 +12199,26 @@
         <v>77</v>
       </c>
       <c r="H89" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J89" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="M89" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>77</v>
       </c>
@@ -12279,7 +12266,7 @@
         <v>77</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>78</v>
@@ -12300,7 +12287,7 @@
         <v>77</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>77</v>
@@ -12311,43 +12298,39 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>133</v>
+        <v>347</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>444</v>
+        <v>531</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>532</v>
+      </c>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>77</v>
       </c>
@@ -12395,28 +12378,28 @@
         <v>77</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>446</v>
+        <v>530</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ90" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>77</v>
+        <v>533</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>130</v>
+        <v>353</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>77</v>
@@ -12450,13 +12433,13 @@
         <v>77</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>351</v>
+        <v>535</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -12525,10 +12508,10 @@
         <v>77</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>357</v>
+        <v>539</v>
       </c>
       <c r="AM91" t="s" s="2">
         <v>77</v>
@@ -12539,7 +12522,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12562,13 +12545,13 @@
         <v>77</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>539</v>
+        <v>270</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -12619,7 +12602,7 @@
         <v>77</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>78</v>
@@ -12637,10 +12620,10 @@
         <v>77</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>77</v>
@@ -12651,7 +12634,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12659,13 +12642,13 @@
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G93" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H93" t="s" s="2">
         <v>77</v>
@@ -12674,13 +12657,13 @@
         <v>77</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>274</v>
+        <v>430</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -12719,25 +12702,23 @@
         <v>77</v>
       </c>
       <c r="AA93" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB93" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>548</v>
+      </c>
+      <c r="AB93" s="2"/>
       <c r="AC93" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD93" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>77</v>
@@ -12749,10 +12730,10 @@
         <v>77</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>547</v>
+        <v>77</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>548</v>
+        <v>130</v>
       </c>
       <c r="AM93" t="s" s="2">
         <v>77</v>
@@ -12771,13 +12752,13 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>77</v>
@@ -12786,13 +12767,13 @@
         <v>77</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>550</v>
+        <v>206</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>551</v>
+        <v>207</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -12831,29 +12812,31 @@
         <v>77</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>552</v>
-      </c>
-      <c r="AB94" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="AC94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD94" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>549</v>
+        <v>208</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI94" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ94" t="s" s="2">
         <v>77</v>
@@ -12862,7 +12845,7 @@
         <v>77</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>77</v>
@@ -12873,18 +12856,18 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>77</v>
@@ -12896,15 +12879,17 @@
         <v>77</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M95" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M95" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>77</v>
@@ -12953,28 +12938,28 @@
         <v>77</v>
       </c>
       <c r="AE95" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL95" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF95" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG95" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK95" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>77</v>
@@ -12985,11 +12970,11 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -13002,24 +12987,26 @@
         <v>77</v>
       </c>
       <c r="H96" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J96" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="M96" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N96" s="2"/>
+      <c r="N96" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O96" t="s" s="2">
         <v>77</v>
       </c>
@@ -13067,7 +13054,7 @@
         <v>77</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>78</v>
@@ -13088,7 +13075,7 @@
         <v>77</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>77</v>
@@ -13099,43 +13086,39 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H97" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>77</v>
       </c>
@@ -13183,19 +13166,19 @@
         <v>77</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI97" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ97" t="s" s="2">
         <v>77</v>
@@ -13215,7 +13198,7 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -13238,13 +13221,13 @@
         <v>77</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>206</v>
+        <v>398</v>
       </c>
       <c r="K98" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L98" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L98" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -13295,7 +13278,7 @@
         <v>77</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>78</v>
@@ -13327,7 +13310,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -13338,7 +13321,7 @@
         <v>78</v>
       </c>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>77</v>
@@ -13350,13 +13333,13 @@
         <v>77</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>402</v>
+        <v>184</v>
       </c>
       <c r="K99" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L99" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L99" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -13383,37 +13366,35 @@
         <v>77</v>
       </c>
       <c r="W99" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X99" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X99" s="2"/>
       <c r="Y99" t="s" s="2">
-        <v>77</v>
+        <v>561</v>
       </c>
       <c r="Z99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA99" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AC99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD99" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>77</v>
@@ -13437,11 +13418,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B100" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
         <v>77</v>
       </c>
@@ -13450,10 +13433,10 @@
         <v>78</v>
       </c>
       <c r="F100" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>77</v>
@@ -13468,7 +13451,7 @@
         <v>563</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M100" s="2"/>
       <c r="N100" s="2"/>
@@ -13495,29 +13478,29 @@
         <v>77</v>
       </c>
       <c r="W100" t="s" s="2">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="X100" s="2"/>
       <c r="Y100" t="s" s="2">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="Z100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>78</v>
@@ -13547,25 +13530,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B101" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F101" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>77</v>
@@ -13574,15 +13555,17 @@
         <v>77</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>184</v>
+        <v>566</v>
       </c>
       <c r="K101" t="s" s="2">
         <v>567</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M101" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
         <v>77</v>
@@ -13607,11 +13590,13 @@
         <v>77</v>
       </c>
       <c r="W101" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X101" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y101" t="s" s="2">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="Z101" t="s" s="2">
         <v>77</v>
@@ -13629,13 +13614,13 @@
         <v>77</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>77</v>
@@ -13661,7 +13646,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -13669,7 +13654,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>88</v>
@@ -13684,7 +13669,7 @@
         <v>77</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="K102" t="s" s="2">
         <v>571</v>
@@ -13693,7 +13678,7 @@
         <v>572</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
@@ -13743,10 +13728,10 @@
         <v>77</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>88</v>
@@ -13773,23 +13758,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B103" s="2"/>
+        <v>545</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>573</v>
+      </c>
       <c r="C103" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G103" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H103" t="s" s="2">
         <v>77</v>
@@ -13798,17 +13785,15 @@
         <v>77</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>570</v>
+        <v>430</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>575</v>
+        <v>546</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>573</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="M103" s="2"/>
       <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>77</v>
@@ -13857,13 +13842,13 @@
         <v>77</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>574</v>
+        <v>545</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>77</v>
@@ -13887,25 +13872,23 @@
         <v>77</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
         <v>549</v>
       </c>
-      <c r="B104" t="s" s="2">
-        <v>577</v>
-      </c>
+      <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G104" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s" s="2">
         <v>77</v>
@@ -13914,13 +13897,13 @@
         <v>77</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>434</v>
+        <v>205</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>550</v>
+        <v>206</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>551</v>
+        <v>207</v>
       </c>
       <c r="M104" s="2"/>
       <c r="N104" s="2"/>
@@ -13971,19 +13954,19 @@
         <v>77</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>549</v>
+        <v>208</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>77</v>
@@ -13992,7 +13975,7 @@
         <v>77</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>130</v>
+        <v>209</v>
       </c>
       <c r="AM104" t="s" s="2">
         <v>77</v>
@@ -14003,18 +13986,18 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>77</v>
@@ -14026,15 +14009,17 @@
         <v>77</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>206</v>
+        <v>133</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>208</v>
-      </c>
-      <c r="M105" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>162</v>
+      </c>
       <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>77</v>
@@ -14083,28 +14068,28 @@
         <v>77</v>
       </c>
       <c r="AE105" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AL105" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL105" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="AM105" t="s" s="2">
         <v>77</v>
@@ -14115,11 +14100,11 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>159</v>
+        <v>439</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -14132,24 +14117,26 @@
         <v>77</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I106" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="J106" t="s" s="2">
         <v>133</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>212</v>
+        <v>440</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="N106" s="2"/>
+      <c r="N106" t="s" s="2">
+        <v>163</v>
+      </c>
       <c r="O106" t="s" s="2">
         <v>77</v>
       </c>
@@ -14197,7 +14184,7 @@
         <v>77</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>215</v>
+        <v>442</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>78</v>
@@ -14218,7 +14205,7 @@
         <v>77</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>210</v>
+        <v>130</v>
       </c>
       <c r="AM106" t="s" s="2">
         <v>77</v>
@@ -14229,43 +14216,39 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
-        <v>443</v>
+        <v>77</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="H107" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>133</v>
+        <v>205</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>444</v>
+        <v>553</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="M107" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="N107" t="s" s="2">
-        <v>163</v>
-      </c>
+        <v>554</v>
+      </c>
+      <c r="M107" s="2"/>
+      <c r="N107" s="2"/>
       <c r="O107" t="s" s="2">
         <v>77</v>
       </c>
@@ -14313,19 +14296,19 @@
         <v>77</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>446</v>
+        <v>552</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AI107" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AJ107" t="s" s="2">
         <v>77</v>
@@ -14345,7 +14328,7 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14368,13 +14351,13 @@
         <v>77</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>206</v>
+        <v>574</v>
       </c>
       <c r="K108" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="L108" t="s" s="2">
         <v>557</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>558</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -14425,7 +14408,7 @@
         <v>77</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>78</v>
@@ -14457,18 +14440,20 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>575</v>
+      </c>
       <c r="E109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>77</v>
@@ -14480,13 +14465,13 @@
         <v>77</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>578</v>
+        <v>184</v>
       </c>
       <c r="K109" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L109" t="s" s="2">
         <v>560</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>561</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -14513,37 +14498,35 @@
         <v>77</v>
       </c>
       <c r="W109" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="X109" s="2"/>
       <c r="Y109" t="s" s="2">
-        <v>77</v>
+        <v>576</v>
       </c>
       <c r="Z109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA109" t="s" s="2">
-        <v>77</v>
+        <v>200</v>
       </c>
       <c r="AB109" t="s" s="2">
-        <v>77</v>
+        <v>201</v>
       </c>
       <c r="AC109" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD109" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>77</v>
@@ -14567,25 +14550,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="110" hidden="true">
+    <row r="110">
       <c r="A110" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B110" t="s" s="2">
         <v>562</v>
       </c>
-      <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D110" t="s" s="2">
-        <v>579</v>
-      </c>
+      <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
         <v>78</v>
       </c>
       <c r="F110" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="G110" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H110" t="s" s="2">
         <v>77</v>
@@ -14600,7 +14583,7 @@
         <v>563</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
@@ -14627,29 +14610,29 @@
         <v>77</v>
       </c>
       <c r="W110" t="s" s="2">
-        <v>111</v>
+        <v>177</v>
       </c>
       <c r="X110" s="2"/>
       <c r="Y110" t="s" s="2">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="Z110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AA110" t="s" s="2">
-        <v>201</v>
+        <v>77</v>
       </c>
       <c r="AB110" t="s" s="2">
-        <v>202</v>
+        <v>77</v>
       </c>
       <c r="AC110" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AD110" t="s" s="2">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="AE110" t="s" s="2">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="AF110" t="s" s="2">
         <v>78</v>
@@ -14681,17 +14664,17 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="B111" t="s" s="2">
-        <v>566</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D111" s="2"/>
+      <c r="D111" t="s" s="2">
+        <v>577</v>
+      </c>
       <c r="E111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="F111" t="s" s="2">
         <v>88</v>
@@ -14706,15 +14689,17 @@
         <v>77</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>184</v>
+        <v>578</v>
       </c>
       <c r="K111" t="s" s="2">
         <v>567</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>567</v>
-      </c>
-      <c r="M111" s="2"/>
+        <v>568</v>
+      </c>
+      <c r="M111" t="s" s="2">
+        <v>569</v>
+      </c>
       <c r="N111" s="2"/>
       <c r="O111" t="s" s="2">
         <v>77</v>
@@ -14739,11 +14724,13 @@
         <v>77</v>
       </c>
       <c r="W111" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="X111" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="X111" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Y111" t="s" s="2">
-        <v>568</v>
+        <v>77</v>
       </c>
       <c r="Z111" t="s" s="2">
         <v>77</v>
@@ -14761,13 +14748,13 @@
         <v>77</v>
       </c>
       <c r="AE111" t="s" s="2">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>77</v>
@@ -14791,25 +14778,25 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
         <v>77</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F112" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G112" t="s" s="2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s" s="2">
         <v>77</v>
@@ -14818,7 +14805,7 @@
         <v>77</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="K112" t="s" s="2">
         <v>571</v>
@@ -14827,7 +14814,7 @@
         <v>572</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="N112" s="2"/>
       <c r="O112" t="s" s="2">
@@ -14877,10 +14864,10 @@
         <v>77</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>88</v>
@@ -14907,124 +14894,8 @@
         <v>77</v>
       </c>
     </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D113" t="s" s="2">
-        <v>583</v>
-      </c>
-      <c r="E113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>582</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>575</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>576</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>573</v>
-      </c>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>574</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="AM113" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AN113" t="s" s="2">
-        <v>77</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN113">
+  <autoFilter ref="A1:AN112">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -15034,7 +14905,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI111">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCImmunization.xlsx
+++ b/StructureDefinition-DDCCImmunization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
